--- a/refs/heads/qr-encoding/StructureDefinition-svc-qr-uvci.xlsx
+++ b/refs/heads/qr-encoding/StructureDefinition-svc-qr-uvci.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$12</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -282,6 +282,15 @@
   </si>
   <si>
     <t>Signature of the [SVC Bundle](http://hl7.org/fhir/R4/StructureDefinition-svc-bundle.html) using a PHA's DSC</t>
+  </si>
+  <si>
+    <t>svc-qr-uvci.elements.version</t>
+  </si>
+  <si>
+    <t>SVC Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version of the [SVC Bundle](http://hl7.org/fhir/R4/StructureDefinition-svc-bundle.html) </t>
   </si>
 </sst>
 </file>
@@ -430,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1589,8 +1598,108 @@
         <v>37</v>
       </c>
     </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ11">
+  <autoFilter ref="A1:AJ12">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1600,7 +1709,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI10">
+  <conditionalFormatting sqref="A2:AI11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/qr-encoding/StructureDefinition-svc-qr-uvci.xlsx
+++ b/refs/heads/qr-encoding/StructureDefinition-svc-qr-uvci.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$11</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="85">
   <si>
     <t>Path</t>
   </si>
@@ -213,20 +213,16 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>svc-qr-uvci.elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>QR Encoded Elements of SVC UVCI</t>
-  </si>
-  <si>
-    <t>Elements of the [SVC Bundle](http://hl7.org/fhir/R4/StructureDefinition-svc-bundle.html) which are QR-Encoded</t>
-  </si>
-  <si>
-    <t>svc-qr-uvci.elements.name</t>
+    <t>svc-qr-uvci.version</t>
+  </si>
+  <si>
+    <t>SVC Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version of the [SVC Bundle](http://hl7.org/fhir/R4/StructureDefinition-svc-bundle.html) </t>
+  </si>
+  <si>
+    <t>svc-qr-uvci.name</t>
   </si>
   <si>
     <t>Name</t>
@@ -235,7 +231,7 @@
     <t>Name of SVC holder</t>
   </si>
   <si>
-    <t>svc-qr-uvci.elements.birthDate</t>
+    <t>svc-qr-uvci.birthDate</t>
   </si>
   <si>
     <t xml:space="preserve">date
@@ -248,7 +244,7 @@
     <t>Date of birth of SVC holder</t>
   </si>
   <si>
-    <t>svc-qr-uvci.elements.patientid</t>
+    <t>svc-qr-uvci.patientid</t>
   </si>
   <si>
     <t>Paper SVC Patient Identifier</t>
@@ -257,7 +253,7 @@
     <t>Identifier of the [SVC Patient](http://hl7.org/fhir/R4/StructureDefinition-svc-patient.html) that represents the Paper SVC Card</t>
   </si>
   <si>
-    <t>svc-qr-uvci.elements.paperid</t>
+    <t>svc-qr-uvci.paperid</t>
   </si>
   <si>
     <t>Paper SVC Composition Identifier</t>
@@ -266,7 +262,7 @@
     <t>Identifier of the [SVC Composition](http://hl7.org/fhir/R4/StructureDefinition-svc-composition.html) that represents the Paper SVC Card</t>
   </si>
   <si>
-    <t>svc-qr-uvci.elements.digitalid</t>
+    <t>svc-qr-uvci.digitalid</t>
   </si>
   <si>
     <t>Digital SVC Composition Identifier</t>
@@ -275,22 +271,13 @@
     <t>Identifier of the [SVC Composition](http://hl7.org/fhir/R4/StructureDefinition-svc-composition.html) that represents the Digital SVC Card</t>
   </si>
   <si>
-    <t>svc-qr-uvci.elements.signature</t>
+    <t>svc-qr-uvci.signature</t>
   </si>
   <si>
     <t xml:space="preserve">SVC Signature </t>
   </si>
   <si>
     <t>Signature of the [SVC Bundle](http://hl7.org/fhir/R4/StructureDefinition-svc-bundle.html) using a PHA's DSC</t>
-  </si>
-  <si>
-    <t>svc-qr-uvci.elements.version</t>
-  </si>
-  <si>
-    <t>SVC Signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version of the [SVC Bundle](http://hl7.org/fhir/R4/StructureDefinition-svc-bundle.html) </t>
   </si>
 </sst>
 </file>
@@ -439,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -448,7 +435,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.46484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.6484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -478,7 +465,7 @@
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="29.46484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="20.3671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -923,13 +910,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1000,7 +987,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1026,10 +1013,10 @@
         <v>48</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1080,7 +1067,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1100,7 +1087,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1123,13 +1110,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1180,7 +1167,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1200,7 +1187,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1226,10 +1213,10 @@
         <v>48</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1280,7 +1267,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
@@ -1300,7 +1287,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1326,10 +1313,10 @@
         <v>48</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1380,7 +1367,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1400,7 +1387,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1426,10 +1413,10 @@
         <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1480,7 +1467,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1500,7 +1487,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1526,10 +1513,10 @@
         <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1580,7 +1567,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1598,108 +1585,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" hidden="true">
-      <c r="A12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ12">
+  <autoFilter ref="A1:AJ11">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1709,7 +1596,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI11">
+  <conditionalFormatting sqref="A2:AI10">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
